--- a/Casos de análisis/7. ADE 02 - Optimización de tablas.xlsx
+++ b/Casos de análisis/7. ADE 02 - Optimización de tablas.xlsx
@@ -8,16 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f3a42771cab8a77/Formación/Python/GITHUB - Repositorios/Modelos en Excel/Casos de análisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="11_AD4D2F04E46CFB4ACB3E208F5597E9D0683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4BD1CE-6916-42BE-9206-2A468D356426}"/>
+  <xr:revisionPtr revIDLastSave="2947" documentId="11_AD4D2F04E46CFB4ACB3E208F5597E9D0683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5957BBCB-B3D5-41C4-960A-C2DC23EA9E67}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Solución 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Solución 1 (aproximada)" sheetId="1" r:id="rId1"/>
+    <sheet name="Solución 2 (óptima)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$H$2:$O$51</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Solución 2 (óptima)'!$Q$6:$X$6</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Solución 2 (óptima)'!$Q$2:$X$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$O$3:$O$50</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$C$13:$F$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$O$3:$O$50</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$O$3:$O$50</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$C$5</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Solución 2 (óptima)'!$C$10:$F$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">"entero"</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,8 +104,60 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B40E28DD-E83B-410F-B020-0A07D8CE26EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Posibles combinaciones de los planes de producción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{9F711146-48E1-44CF-BEDB-E23C3E26984A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Máxima cantidad de producto que se puede obtener a paritr de un listón.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{4E271D2C-CEC6-4866-AB3E-7C79D9352039}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Opciones de producción. Se puede fabricar cierta cantidad o simplemente nada.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -85,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Tipo de producto</t>
   </si>
@@ -174,12 +268,63 @@
   <si>
     <t>Aprovechamiento</t>
   </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Longtiud [m]</t>
+  </si>
+  <si>
+    <t>Demanda [unid]</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Materia prima [m]</t>
+  </si>
+  <si>
+    <t>Opciones</t>
+  </si>
+  <si>
+    <t>Programas teóricos</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>Medida cortada</t>
+  </si>
+  <si>
+    <t>Factibilidad</t>
+  </si>
+  <si>
+    <t>Programas actibles</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>Consumo</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Factible</t>
+  </si>
+  <si>
+    <t>&lt;&gt;0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +346,24 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +376,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -318,13 +490,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -386,24 +594,76 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - Énfasis3" xfId="2" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Salida" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="222">
+  <dxfs count="29">
     <dxf>
-      <alignment wrapText="1"/>
+      <alignment relativeIndent="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <alignment relativeIndent="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -445,51 +705,6 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -500,564 +715,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1079,7 +736,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DELL" refreshedDate="44942.957030902777" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{A3B10FB0-776D-4B14-A0C6-1E992C5496B5}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="G2:L94" sheet="Solución 1"/>
+    <worksheetSource ref="G2:L94" sheet="Solución 1 (aproximada)"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="N°" numFmtId="0">
@@ -1871,7 +1528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77F0FB20-5D5F-4D54-A2E4-F4691484CF6B}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77F0FB20-5D5F-4D54-A2E4-F4691484CF6B}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="O2:R9" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -1949,29 +1606,29 @@
     <dataField name="Cuenta de N°" fld="0" subtotal="count" baseField="3" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="219">
+    <format dxfId="28">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="27">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="26">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="6">
@@ -1986,7 +1643,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -1999,7 +1656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2012,7 +1669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2025,7 +1682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2038,7 +1695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2051,7 +1708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2064,31 +1721,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="15">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="13">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="11">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="9">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="6">
@@ -2103,7 +1760,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="6" selected="0">
@@ -2126,22 +1783,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2422,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5013,4 +4670,1897 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C3C940-15DE-44E7-BCCF-779423AD261F}">
+  <dimension ref="B1:X51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="1"/>
+    <col min="8" max="8" width="8.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.90625" style="1"/>
+    <col min="18" max="21" width="4.54296875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <f>PRODUCT(C12:F12)</f>
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" cm="1">
+        <f t="array" ref="H3:H50">_xlfn.SEQUENCE(C3,,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f>MOD(INT(($H3-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>MOD(INT(($H3-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f>MOD(INT(($H3-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f>MOD(INT(($H3-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <f>SUMPRODUCT(I3:L3,$C$9:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="23" t="str">
+        <f>IF(M3&lt;=$C$2,"Factible","No factible")</f>
+        <v>Factible</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <f>COUNTIF(N3:N50,"Factible")</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <f>MOD(INT(($H4-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>MOD(INT(($H4-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>MOD(INT(($H4-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>MOD(INT(($H4-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M50" si="0">SUMPRODUCT(I4:L4,$C$9:$F$9)</f>
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="23" t="str">
+        <f t="shared" ref="N4:N50" si="1">IF(M4&lt;=$C$2,"Factible","No factible")</f>
+        <v>Factible</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="27">
+        <f>SUM(O3:O50)</f>
+        <v>57</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <f>MOD(INT(($H5-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f>MOD(INT(($H5-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f>MOD(INT(($H5-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f>MOD(INT(($H5-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="N5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="29">
+        <f>SUMPRODUCT(C13:F13,C9:F9)/PRODUCT(C2,C5)</f>
+        <v>0.79614035087719304</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <f>MOD(INT(($H6-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>MOD(INT(($H6-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>MOD(INT(($H6-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f>MOD(INT(($H6-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="N6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <f>MOD(INT(($H7-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>MOD(INT(($H7-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MOD(INT(($H7-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <f>MOD(INT(($H7-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="N7" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>9</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <f>MOD(INT(($H8-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>MOD(INT(($H8-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MOD(INT(($H8-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <f>MOD(INT(($H8-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="N8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>13</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <f>MOD(INT(($H9-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>MOD(INT(($H9-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MOD(INT(($H9-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <f>MOD(INT(($H9-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="N9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>14</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <f>MOD(INT(($H10-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f>MOD(INT(($H10-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MOD(INT(($H10-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <f>MOD(INT(($H10-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="N10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>25</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <f>INT($C$2/C9)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:F11" si="2">INT($C$2/D9)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <f>MOD(INT(($H11-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>MOD(INT(($H11-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f>MOD(INT(($H11-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <f>MOD(INT(($H11-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="N11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O11" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C11+1</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:F12" si="3">D11+1</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <f>MOD(INT(($H12-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f>MOD(INT(($H12-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f>MOD(INT(($H12-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <f>MOD(INT(($H12-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="N12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="28">
+        <f t="array" ref="C13">SUMPRODUCT(I$3:I$50,$O3:$O50,IF($N3:$N$50="Factible",1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="array" ref="D13">SUMPRODUCT(J$3:J$50,$O3:$O50,IF($N3:$N$50="Factible",1,0))</f>
+        <v>37</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="array" ref="E13">SUMPRODUCT(K$3:K$50,$O3:$O50,IF($N3:$N$50="Factible",1,0))</f>
+        <v>20</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="array" ref="F13">SUMPRODUCT(L$3:L$50,$O3:$O50,IF($N3:$N$50="Factible",1,0))</f>
+        <v>25</v>
+      </c>
+      <c r="H13" s="3">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3">
+        <f>MOD(INT(($H13-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>MOD(INT(($H13-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f>MOD(INT(($H13-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <f>MOD(INT(($H13-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="N13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <f>MOD(INT(($H14-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>MOD(INT(($H14-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>MOD(INT(($H14-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
+        <f>MOD(INT(($H14-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="N14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
+        <f>MOD(INT(($H15-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f>MOD(INT(($H15-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <f>MOD(INT(($H15-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f>MOD(INT(($H15-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="N15" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O15" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="H16" s="3">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <f>MOD(INT(($H16-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <f>MOD(INT(($H16-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <f>MOD(INT(($H16-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f>MOD(INT(($H16-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O16" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H17" s="3">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3">
+        <f>MOD(INT(($H17-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f>MOD(INT(($H17-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MOD(INT(($H17-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f>MOD(INT(($H17-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="N17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H18" s="3">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3">
+        <f>MOD(INT(($H18-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f>MOD(INT(($H18-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f>MOD(INT(($H18-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f>MOD(INT(($H18-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="N18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H19" s="3">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <f>MOD(INT(($H19-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f>MOD(INT(($H19-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <f>MOD(INT(($H19-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <f>MOD(INT(($H19-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H20" s="3">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3">
+        <f>MOD(INT(($H20-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f>MOD(INT(($H20-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <f>MOD(INT(($H20-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <f>MOD(INT(($H20-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="N20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H21" s="3">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <f>MOD(INT(($H21-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f>MOD(INT(($H21-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f>MOD(INT(($H21-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <f>MOD(INT(($H21-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9499999999999997</v>
+      </c>
+      <c r="N21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H22" s="3">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3">
+        <f>MOD(INT(($H22-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f>MOD(INT(($H22-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f>MOD(INT(($H22-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <f>MOD(INT(($H22-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="N22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H23" s="3">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3">
+        <f>MOD(INT(($H23-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <f>MOD(INT(($H23-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f>MOD(INT(($H23-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <f>MOD(INT(($H23-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="N23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H24" s="3">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3">
+        <f>MOD(INT(($H24-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f>MOD(INT(($H24-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <f>MOD(INT(($H24-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <f>MOD(INT(($H24-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+      <c r="N24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H25" s="3">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3">
+        <f>MOD(INT(($H25-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f>MOD(INT(($H25-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <f>MOD(INT(($H25-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <f>MOD(INT(($H25-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="0"/>
+        <v>5.15</v>
+      </c>
+      <c r="N25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O25" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H26" s="3">
+        <v>24</v>
+      </c>
+      <c r="I26" s="3">
+        <f>MOD(INT(($H26-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f>MOD(INT(($H26-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f>MOD(INT(($H26-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <f>MOD(INT(($H26-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="0"/>
+        <v>5.85</v>
+      </c>
+      <c r="N26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H27" s="3">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3">
+        <f>MOD(INT(($H27-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <f>MOD(INT(($H27-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f>MOD(INT(($H27-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f>MOD(INT(($H27-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Factible</v>
+      </c>
+      <c r="O27" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H28" s="3">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3">
+        <f>MOD(INT(($H28-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <f>MOD(INT(($H28-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>MOD(INT(($H28-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f>MOD(INT(($H28-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="N28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O28" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H29" s="3">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3">
+        <f>MOD(INT(($H29-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <f>MOD(INT(($H29-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f>MOD(INT(($H29-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <f>MOD(INT(($H29-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="N29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O29" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H30" s="3">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3">
+        <f>MOD(INT(($H30-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <f>MOD(INT(($H30-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f>MOD(INT(($H30-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <f>MOD(INT(($H30-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="N30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H31" s="3">
+        <v>29</v>
+      </c>
+      <c r="I31" s="3">
+        <f>MOD(INT(($H31-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <f>MOD(INT(($H31-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <f>MOD(INT(($H31-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <f>MOD(INT(($H31-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="N31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O31" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H32" s="3">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3">
+        <f>MOD(INT(($H32-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <f>MOD(INT(($H32-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f>MOD(INT(($H32-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <f>MOD(INT(($H32-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="N32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H33" s="3">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3">
+        <f>MOD(INT(($H33-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <f>MOD(INT(($H33-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>MOD(INT(($H33-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <f>MOD(INT(($H33-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="N33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H34" s="3">
+        <v>32</v>
+      </c>
+      <c r="I34" s="3">
+        <f>MOD(INT(($H34-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <f>MOD(INT(($H34-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <f>MOD(INT(($H34-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <f>MOD(INT(($H34-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="N34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H35" s="3">
+        <v>33</v>
+      </c>
+      <c r="I35" s="3">
+        <f>MOD(INT(($H35-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <f>MOD(INT(($H35-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f>MOD(INT(($H35-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L35" s="3">
+        <f>MOD(INT(($H35-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H36" s="3">
+        <v>34</v>
+      </c>
+      <c r="I36" s="3">
+        <f>MOD(INT(($H36-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <f>MOD(INT(($H36-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <f>MOD(INT(($H36-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L36" s="3">
+        <f>MOD(INT(($H36-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="N36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H37" s="3">
+        <v>35</v>
+      </c>
+      <c r="I37" s="3">
+        <f>MOD(INT(($H37-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <f>MOD(INT(($H37-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f>MOD(INT(($H37-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L37" s="3">
+        <f>MOD(INT(($H37-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H38" s="3">
+        <v>36</v>
+      </c>
+      <c r="I38" s="3">
+        <f>MOD(INT(($H38-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <f>MOD(INT(($H38-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f>MOD(INT(($H38-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L38" s="3">
+        <f>MOD(INT(($H38-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="N38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H39" s="3">
+        <v>37</v>
+      </c>
+      <c r="I39" s="3">
+        <f>MOD(INT(($H39-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <f>MOD(INT(($H39-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <f>MOD(INT(($H39-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <f>MOD(INT(($H39-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5500000000000003</v>
+      </c>
+      <c r="N39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H40" s="3">
+        <v>38</v>
+      </c>
+      <c r="I40" s="3">
+        <f>MOD(INT(($H40-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <f>MOD(INT(($H40-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <f>MOD(INT(($H40-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <f>MOD(INT(($H40-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="N40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H41" s="3">
+        <v>39</v>
+      </c>
+      <c r="I41" s="3">
+        <f>MOD(INT(($H41-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <f>MOD(INT(($H41-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <f>MOD(INT(($H41-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <f>MOD(INT(($H41-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="N41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H42" s="3">
+        <v>40</v>
+      </c>
+      <c r="I42" s="3">
+        <f>MOD(INT(($H42-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <f>MOD(INT(($H42-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <f>MOD(INT(($H42-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <f>MOD(INT(($H42-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+      <c r="N42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H43" s="3">
+        <v>41</v>
+      </c>
+      <c r="I43" s="3">
+        <f>MOD(INT(($H43-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <f>MOD(INT(($H43-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <f>MOD(INT(($H43-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <f>MOD(INT(($H43-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="N43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H44" s="3">
+        <v>42</v>
+      </c>
+      <c r="I44" s="3">
+        <f>MOD(INT(($H44-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <f>MOD(INT(($H44-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <f>MOD(INT(($H44-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <f>MOD(INT(($H44-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="0"/>
+        <v>5.45</v>
+      </c>
+      <c r="N44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H45" s="3">
+        <v>43</v>
+      </c>
+      <c r="I45" s="3">
+        <f>MOD(INT(($H45-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <f>MOD(INT(($H45-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <f>MOD(INT(($H45-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <f>MOD(INT(($H45-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="0"/>
+        <v>6.15</v>
+      </c>
+      <c r="N45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H46" s="3">
+        <v>44</v>
+      </c>
+      <c r="I46" s="3">
+        <f>MOD(INT(($H46-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <f>MOD(INT(($H46-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <f>MOD(INT(($H46-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <f>MOD(INT(($H46-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="0"/>
+        <v>6.85</v>
+      </c>
+      <c r="N46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H47" s="3">
+        <v>45</v>
+      </c>
+      <c r="I47" s="3">
+        <f>MOD(INT(($H47-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <f>MOD(INT(($H47-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <f>MOD(INT(($H47-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L47" s="3">
+        <f>MOD(INT(($H47-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="N47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H48" s="3">
+        <v>46</v>
+      </c>
+      <c r="I48" s="3">
+        <f>MOD(INT(($H48-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <f>MOD(INT(($H48-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <f>MOD(INT(($H48-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L48" s="3">
+        <f>MOD(INT(($H48-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="0"/>
+        <v>6.65</v>
+      </c>
+      <c r="N48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="H49" s="3">
+        <v>47</v>
+      </c>
+      <c r="I49" s="3">
+        <f>MOD(INT(($H49-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <f>MOD(INT(($H49-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <f>MOD(INT(($H49-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L49" s="3">
+        <f>MOD(INT(($H49-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>2</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="0"/>
+        <v>7.35</v>
+      </c>
+      <c r="N49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="22">
+        <v>48</v>
+      </c>
+      <c r="I50" s="22">
+        <f>MOD(INT(($H50-1)/($C$3/PRODUCT($C$12:C$12))),C$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="22">
+        <f>MOD(INT(($H50-1)/($C$3/PRODUCT($C$12:D$12))),D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="22">
+        <f>MOD(INT(($H50-1)/($C$3/PRODUCT($C$12:E$12))),E$12)</f>
+        <v>2</v>
+      </c>
+      <c r="L50" s="22">
+        <f>MOD(INT(($H50-1)/($C$3/PRODUCT($C$12:F$12))),F$12)</f>
+        <v>3</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="N50" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>No factible</v>
+      </c>
+      <c r="O50" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O51" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>